--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92D84FB-531B-47C9-B386-901136F69285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EC35AD-FBF1-4685-8185-27ABCD8C6188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="MOBILE_CONFIGURATION" sheetId="3" r:id="rId3"/>
     <sheet name="DB_CONNECTION" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Si_No</t>
   </si>
@@ -48,9 +48,6 @@
     <t>ExecutionType</t>
   </si>
   <si>
-    <t>ApplicationId</t>
-  </si>
-  <si>
     <t>TestDataSheet</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>FOSs</t>
+  </si>
+  <si>
+    <t>ApplicationName</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B1E07-4DA7-41EB-9AFF-2BFFC4045DD0}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,13 +609,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -626,15 +626,35 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
         <v>30</v>
       </c>
     </row>
@@ -680,40 +700,40 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -724,43 +744,43 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>11</v>
       </c>
       <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -774,40 +794,40 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>11</v>
       </c>
       <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -846,16 +866,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -869,16 +889,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EC35AD-FBF1-4685-8185-27ABCD8C6188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC53651-8F9E-4556-95E9-229FC86D3F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Si_No</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>ApplicationName</t>
+  </si>
+  <si>
+    <t>com.mahindra.fosqa</t>
+  </si>
+  <si>
+    <t>192.168.1.107:5555</t>
+  </si>
+  <si>
+    <t>com.mahindra.fosbeta.MainActivity</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -528,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +597,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,10 +664,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -665,10 +677,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A659C7-4FC8-47B5-9B4A-1B5BDCE68376}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,9 +699,10 @@
     <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -736,12 +749,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -782,8 +795,9 @@
       <c r="O2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -793,14 +807,14 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -829,6 +843,7 @@
       <c r="O3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="P3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC53651-8F9E-4556-95E9-229FC86D3F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092444DD-F8DD-465C-B11B-C05E9E842734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Si_No</t>
   </si>
@@ -150,12 +150,6 @@
     <t>local</t>
   </si>
   <si>
-    <t>192.168.0.131:5555</t>
-  </si>
-  <si>
-    <t>FOSs</t>
-  </si>
-  <si>
     <t>ApplicationName</t>
   </si>
   <si>
@@ -166,6 +160,15 @@
   </si>
   <si>
     <t>com.mahindra.fosbeta.MainActivity</t>
+  </si>
+  <si>
+    <t>Calculator</t>
+  </si>
+  <si>
+    <t>Calculator.xlsx</t>
+  </si>
+  <si>
+    <t>192.168.1.102:5555</t>
   </si>
   <si>
     <t>N</t>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -585,6 +588,23 @@
       </c>
       <c r="E2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +617,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,16 +658,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -679,15 +699,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A659C7-4FC8-47B5-9B4A-1B5BDCE68376}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
@@ -754,10 +774,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -766,7 +786,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
@@ -808,13 +828,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092444DD-F8DD-465C-B11B-C05E9E842734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76DFF10-A836-4514-8CAF-FC2FAB7EF54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="4536" yWindow="3276" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B1E07-4DA7-41EB-9AFF-2BFFC4045DD0}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,7 +687,7 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76DFF10-A836-4514-8CAF-FC2FAB7EF54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628E8B10-8F33-4B11-AD1F-72DD0C88FE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4536" yWindow="3276" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
     <sheet name="DATASHEET" sheetId="2" r:id="rId2"/>
     <sheet name="MOBILE_CONFIGURATION" sheetId="3" r:id="rId3"/>
-    <sheet name="DB_CONNECTION" sheetId="4" r:id="rId4"/>
+    <sheet name="MAIL_SEND" sheetId="6" r:id="rId4"/>
+    <sheet name="DB_CONNECTION" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Si_No</t>
   </si>
@@ -172,13 +173,46 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>SR_NO</t>
+  </si>
+  <si>
+    <t>HOST</t>
+  </si>
+  <si>
+    <t>MAIL_TO</t>
+  </si>
+  <si>
+    <t>MAIL_CC</t>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+  </si>
+  <si>
+    <t>BODY_MESSAGE</t>
+  </si>
+  <si>
+    <t>biswajit.sahoo@apmosys.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahindra Finance FOS Mobile Automation Testing Report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please Findout The below Mobile Automation Test Report :- </t>
+  </si>
+  <si>
+    <t>lveshguhuyjmvglw</t>
+  </si>
+  <si>
+    <t>biswajitsahookanha11@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +232,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,10 +265,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -227,8 +277,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -616,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B1E07-4DA7-41EB-9AFF-2BFFC4045DD0}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -872,6 +927,95 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88F3852-CFFF-4915-8CF2-F165788EAB51}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{4EA86FAC-6AD7-4362-A667-2EEBFB8938A7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B55E28-5757-46E8-9BFE-6FB73404210D}">
   <dimension ref="A1:G2"/>
   <sheetViews>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628E8B10-8F33-4B11-AD1F-72DD0C88FE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6548C7-1AFB-40FE-A9CF-2B75D318A0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -672,7 +672,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,10 +739,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +755,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88F3852-CFFF-4915-8CF2-F165788EAB51}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6548C7-1AFB-40FE-A9CF-2B75D318A0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DD41B3-09DC-4708-9C7B-9219088909AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>Si_No</t>
   </si>
@@ -157,9 +157,6 @@
     <t>com.mahindra.fosqa</t>
   </si>
   <si>
-    <t>192.168.1.107:5555</t>
-  </si>
-  <si>
     <t>com.mahindra.fosbeta.MainActivity</t>
   </si>
   <si>
@@ -206,12 +203,27 @@
   </si>
   <si>
     <t>biswajitsahookanha11@gmail.com</t>
+  </si>
+  <si>
+    <t>biswajitsahoo_0n9ypv</t>
+  </si>
+  <si>
+    <t>qZHZfSFttvdThCVVX6Ki</t>
+  </si>
+  <si>
+    <t>One Plus 11R</t>
+  </si>
+  <si>
+    <t>Remote</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -281,6 +293,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -599,7 +612,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -650,16 +663,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -713,10 +726,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -754,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A659C7-4FC8-47B5-9B4A-1B5BDCE68376}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +780,7 @@
     <col min="5" max="5" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.77734375" bestFit="1" customWidth="1"/>
@@ -799,7 +812,7 @@
       <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
@@ -832,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -841,12 +854,12 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>11</v>
       </c>
       <c r="I2" t="s">
@@ -886,16 +899,16 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="H3">
-        <v>11</v>
+      <c r="H3" s="5">
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>25</v>
@@ -913,10 +926,10 @@
         <v>19</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -951,7 +964,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -960,22 +973,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
       </c>
       <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
-      </c>
-      <c r="I1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -983,28 +996,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DD41B3-09DC-4708-9C7B-9219088909AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3E927E-37E9-482C-868F-FDE528DE3EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>Si_No</t>
   </si>
@@ -58,9 +58,6 @@
     <t>ExplicityWait</t>
   </si>
   <si>
-    <t>FOS.xlsx</t>
-  </si>
-  <si>
     <t>TestingPlatform</t>
   </si>
   <si>
@@ -211,10 +208,10 @@
     <t>qZHZfSFttvdThCVVX6Ki</t>
   </si>
   <si>
-    <t>One Plus 11R</t>
-  </si>
-  <si>
-    <t>Remote</t>
+    <t>FOS3.xlsx</t>
+  </si>
+  <si>
+    <t>d4a4d1d2</t>
   </si>
 </sst>
 </file>
@@ -611,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -649,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -663,16 +660,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +682,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,10 +723,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -749,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -767,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A659C7-4FC8-47B5-9B4A-1B5BDCE68376}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,40 +798,40 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -845,43 +842,43 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="5">
         <v>11</v>
       </c>
       <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="P2" s="1"/>
     </row>
@@ -896,40 +893,40 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -964,7 +961,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -973,22 +970,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>51</v>
-      </c>
-      <c r="I1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -996,28 +993,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>54</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1058,16 +1055,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1081,16 +1078,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3E927E-37E9-482C-868F-FDE528DE3EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EDACB-513C-4519-9BFE-361131308C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
@@ -765,7 +765,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EDACB-513C-4519-9BFE-361131308C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC08D83F-AE27-4A5D-A1A6-B868C031AC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -208,10 +208,10 @@
     <t>qZHZfSFttvdThCVVX6Ki</t>
   </si>
   <si>
-    <t>FOS3.xlsx</t>
-  </si>
-  <si>
     <t>d4a4d1d2</t>
+  </si>
+  <si>
+    <t>FOS4.xlsx</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B1E07-4DA7-41EB-9AFF-2BFFC4045DD0}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -746,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -764,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A659C7-4FC8-47B5-9B4A-1B5BDCE68376}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -899,7 +899,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC08D83F-AE27-4A5D-A1A6-B868C031AC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA38954-15D0-4FE1-95F6-4453CA798FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
@@ -211,7 +211,7 @@
     <t>d4a4d1d2</t>
   </si>
   <si>
-    <t>FOS4.xlsx</t>
+    <t>FOS5.xlsx</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,10 +749,10 @@
         <v>60</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>20</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA38954-15D0-4FE1-95F6-4453CA798FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C98F62B-5524-40EA-B265-25CC40094DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Si_No</t>
   </si>
@@ -211,7 +211,16 @@
     <t>d4a4d1d2</t>
   </si>
   <si>
-    <t>FOS5.xlsx</t>
+    <t>FOS3.xlsx</t>
+  </si>
+  <si>
+    <t>ApplicationType</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
   </si>
 </sst>
 </file>
@@ -606,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,10 +627,11 @@
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,8 +647,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -654,8 +667,11 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -670,6 +686,29 @@
       </c>
       <c r="E3" t="s">
         <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -681,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B1E07-4DA7-41EB-9AFF-2BFFC4045DD0}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C98F62B-5524-40EA-B265-25CC40094DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD779317-D06E-4386-A230-EFF1CCFE9935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>Si_No</t>
   </si>
@@ -211,16 +211,13 @@
     <t>d4a4d1d2</t>
   </si>
   <si>
-    <t>FOS3.xlsx</t>
-  </si>
-  <si>
-    <t>ApplicationType</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>MOBILE</t>
+    <t>Ishine</t>
+  </si>
+  <si>
+    <t>Ishine.xlsx</t>
+  </si>
+  <si>
+    <t>FOS8.xlsx</t>
   </si>
 </sst>
 </file>
@@ -266,12 +263,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -287,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -300,6 +303,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -615,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,10 +632,9 @@
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,11 +650,8 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -667,15 +667,12 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
@@ -687,28 +684,39 @@
       <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -718,10 +726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B1E07-4DA7-41EB-9AFF-2BFFC4045DD0}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,12 +793,32 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
     </row>
@@ -803,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A659C7-4FC8-47B5-9B4A-1B5BDCE68376}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -980,7 +1008,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD779317-D06E-4386-A230-EFF1CCFE9935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD39C6B0-88F1-4499-BEEB-EF433D0163F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
@@ -217,7 +217,7 @@
     <t>Ishine.xlsx</t>
   </si>
   <si>
-    <t>FOS8.xlsx</t>
+    <t>FOS5_Till_UW.xlsx</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -707,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -729,7 +729,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -816,7 +816,7 @@
         <v>61</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>20</v>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD39C6B0-88F1-4499-BEEB-EF433D0163F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F686092-C4E0-4741-8C82-7877C4C76864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>Si_No</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>FOS5_Till_UW.xlsx</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -706,7 +709,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
@@ -729,7 +732,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,7 +822,7 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F686092-C4E0-4741-8C82-7877C4C76864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2812386-E313-4474-A73F-61C2BC933115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
   <si>
     <t>Si_No</t>
   </si>
@@ -217,10 +217,19 @@
     <t>Ishine.xlsx</t>
   </si>
   <si>
-    <t>FOS5_Till_UW.xlsx</t>
-  </si>
-  <si>
-    <t>n</t>
+    <t>FOS_PostSanction</t>
+  </si>
+  <si>
+    <t>FOS3UW_to_postSanction.xlsx</t>
+  </si>
+  <si>
+    <t>CPC_1stTouchPoint_Approval</t>
+  </si>
+  <si>
+    <t>CPC_1stTouchPoint_Approval.xlsx</t>
+  </si>
+  <si>
+    <t>FOS8.xlsx</t>
   </si>
 </sst>
 </file>
@@ -230,7 +239,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +274,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -293,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -307,6 +323,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -622,9 +639,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -633,8 +650,7 @@
     <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -659,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -693,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -709,17 +725,34 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -729,18 +762,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B1E07-4DA7-41EB-9AFF-2BFFC4045DD0}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -796,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -822,7 +855,47 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -832,17 +905,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A659C7-4FC8-47B5-9B4A-1B5BDCE68376}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
@@ -999,6 +1072,54 @@
         <v>58</v>
       </c>
       <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="5">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2812386-E313-4474-A73F-61C2BC933115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F8A22C-F059-495C-8AA2-8716521424FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t>Si_No</t>
   </si>
@@ -226,10 +226,10 @@
     <t>CPC_1stTouchPoint_Approval</t>
   </si>
   <si>
-    <t>CPC_1stTouchPoint_Approval.xlsx</t>
-  </si>
-  <si>
-    <t>FOS8.xlsx</t>
+    <t>FOS5_Till_UW.xlsx</t>
+  </si>
+  <si>
+    <t>CPC_1stTouchPoint_Approval2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +650,8 @@
     <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -764,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B1E07-4DA7-41EB-9AFF-2BFFC4045DD0}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -889,7 +890,7 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>20</v>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F8A22C-F059-495C-8AA2-8716521424FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068E34B0-5026-4B93-B86C-A5F73D199005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -226,10 +226,10 @@
     <t>CPC_1stTouchPoint_Approval</t>
   </si>
   <si>
-    <t>FOS5_Till_UW.xlsx</t>
-  </si>
-  <si>
-    <t>CPC_1stTouchPoint_Approval2.xlsx</t>
+    <t>CPC_Dynamic.xlsx</t>
+  </si>
+  <si>
+    <t>FOS7_AfterPostSanction.xlsx</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" activeCellId="1" sqref="B2 H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -744,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B1E07-4DA7-41EB-9AFF-2BFFC4045DD0}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -890,10 +890,10 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>20</v>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068E34B0-5026-4B93-B86C-A5F73D199005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9A5D89-2450-4AF5-AA64-017DA86944CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="67">
   <si>
     <t>Si_No</t>
   </si>
@@ -151,9 +151,6 @@
     <t>ApplicationName</t>
   </si>
   <si>
-    <t>com.mahindra.fosqa</t>
-  </si>
-  <si>
     <t>com.mahindra.fosbeta.MainActivity</t>
   </si>
   <si>
@@ -229,7 +226,10 @@
     <t>CPC_Dynamic.xlsx</t>
   </si>
   <si>
-    <t>FOS7_AfterPostSanction.xlsx</t>
+    <t>com.mahindra.fospreprod</t>
+  </si>
+  <si>
+    <t>FOSScroll.xlsx</t>
   </si>
 </sst>
 </file>
@@ -639,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" activeCellId="1" sqref="B2 H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,7 +654,7 @@
     <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -688,72 +688,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -765,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B1E07-4DA7-41EB-9AFF-2BFFC4045DD0}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,10 +812,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -847,10 +852,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -867,10 +872,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -887,10 +892,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>65</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -909,7 +914,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,7 +922,7 @@
     <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -986,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -995,7 +1000,7 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
         <v>37</v>
@@ -1037,13 +1042,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -1067,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -1082,16 +1087,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -1115,10 +1120,10 @@
         <v>18</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -1153,7 +1158,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1162,22 +1167,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
         <v>30</v>
       </c>
       <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1185,28 +1190,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9A5D89-2450-4AF5-AA64-017DA86944CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFF80B4-3846-4215-BECB-CC2693BA3708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>Si_No</t>
   </si>
@@ -229,7 +229,25 @@
     <t>com.mahindra.fospreprod</t>
   </si>
   <si>
-    <t>FOSScroll.xlsx</t>
+    <t>FOS_Till_UW</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>FOS_Till_UW2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -239,7 +257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +299,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -309,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -324,6 +348,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -639,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,8 +697,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -682,15 +707,15 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>44</v>
@@ -706,8 +731,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -723,8 +748,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -740,8 +765,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
+      <c r="A6" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -756,12 +781,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -770,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B1E07-4DA7-41EB-9AFF-2BFFC4045DD0}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,10 +858,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -913,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A659C7-4FC8-47B5-9B4A-1B5BDCE68376}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>65</v>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFF80B4-3846-4215-BECB-CC2693BA3708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AD2EC9-44FC-44E8-82C5-141A9180D6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
   <si>
     <t>Si_No</t>
   </si>
@@ -217,9 +217,6 @@
     <t>FOS_PostSanction</t>
   </si>
   <si>
-    <t>FOS3UW_to_postSanction.xlsx</t>
-  </si>
-  <si>
     <t>CPC_1stTouchPoint_Approval</t>
   </si>
   <si>
@@ -247,7 +244,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>FOS_Till_UW2.xlsx</t>
+    <t>FOS3UW_to_postSanction2.xlsx</t>
+  </si>
+  <si>
+    <t>FOS7_AfterPostSanction.xlsx</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,24 +698,24 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>44</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -766,19 +766,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -794,10 +794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B1E07-4DA7-41EB-9AFF-2BFFC4045DD0}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>72</v>
@@ -901,7 +901,7 @@
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -918,15 +918,55 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
         <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
         <v>20</v>
       </c>
     </row>
@@ -937,10 +977,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A659C7-4FC8-47B5-9B4A-1B5BDCE68376}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,10 +1105,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>40</v>
@@ -1116,7 +1156,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>40</v>
@@ -1152,6 +1192,54 @@
         <v>57</v>
       </c>
       <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="5">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AD2EC9-44FC-44E8-82C5-141A9180D6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529FF898-906A-43B8-B7F6-77B6D6BFABCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_CONTROLLER" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
   <si>
     <t>Si_No</t>
   </si>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +769,7 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -779,6 +779,23 @@
       </c>
       <c r="E6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -794,10 +811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B1E07-4DA7-41EB-9AFF-2BFFC4045DD0}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,36 +954,16 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>62</v>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
         <v>20</v>
       </c>
     </row>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529FF898-906A-43B8-B7F6-77B6D6BFABCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1E20A8-E2E9-4A08-AE78-3ADA97B76DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{25C6B8C4-9C4A-44EA-8605-4300C0C3F79D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
   <si>
     <t>Si_No</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>FOS7_AfterPostSanction.xlsx</t>
+  </si>
+  <si>
+    <t>FOS_CoApp&amp;Guarantor_Till_UW.xlsx</t>
+  </si>
+  <si>
+    <t>com.mahindra.fosqa</t>
   </si>
 </sst>
 </file>
@@ -664,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43CBD30-1ED8-4A96-A2D6-7A949A45DBE4}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,7 +707,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -735,7 +741,7 @@
         <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -752,7 +758,7 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -774,11 +780,11 @@
       <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
+      <c r="D6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -786,20 +792,20 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H13" t="s">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -814,7 +820,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F15" activeCellId="1" sqref="E7 F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,23 +853,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>10</v>
       </c>
     </row>
@@ -878,7 +884,7 @@
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -961,7 +967,7 @@
         <v>72</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -974,10 +980,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A659C7-4FC8-47B5-9B4A-1B5BDCE68376}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,7 +1111,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>40</v>
@@ -1153,7 +1159,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>40</v>
@@ -1201,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>40</v>
@@ -1237,6 +1243,11 @@
         <v>57</v>
       </c>
       <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
